--- a/medicine/Enfance/The_Lorax/The_Lorax.xlsx
+++ b/medicine/Enfance/The_Lorax/The_Lorax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Lorax est un livre pour enfants écrit par le Dr Seuss et publié pour la première fois en 1971. Il s'agit d'une fable en faveur de l'activisme environnemental, symbolisé par le personnage du Lorax.
